--- a/Projects/CARLSBERG/Data/config_setup.xlsx
+++ b/Projects/CARLSBERG/Data/config_setup.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">kpi_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">KPI Name</t>
   </si>
   <si>
     <t xml:space="preserve">scene_types</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">FSOS_OWN_MANUFACTURER_IN_WHOLE_STORE</t>
   </si>
   <si>
-    <t xml:space="preserve">Fridges(On Premise)</t>
+    <t xml:space="preserve">Ambient Floor Display(Off Premise)</t>
   </si>
   <si>
     <t xml:space="preserve">Exclude</t>
@@ -70,6 +70,12 @@
     <t xml:space="preserve">candy, chocolate</t>
   </si>
   <si>
+    <t xml:space="preserve">COUNT_SKU_FACINGS_IN_FLOOR_STACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor Stack</t>
+  </si>
+  <si>
     <t xml:space="preserve">Availability Ambient</t>
   </si>
   <si>
@@ -80,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">Availability Floor Stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambient Floor Display(Off Premise)</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +147,14 @@
         <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8F9D0"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -167,6 +176,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -193,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,31 +219,27 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -279,7 +291,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFC8F9D0"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -311,29 +323,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -361,74 +373,74 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="J2" s="6" t="n">
         <v>43850</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="6" t="n">
         <v>44581</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="8" t="n">
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6" t="n">
         <v>43850</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="6" t="n">
         <v>44581</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -436,47 +448,82 @@
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="6" t="n">
         <v>43850</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="6" t="n">
         <v>44581</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="8" t="n">
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="n">
         <v>43850</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="6" t="n">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="6" t="n">
+        <v>43850</v>
+      </c>
+      <c r="K6" s="6" t="n">
         <v>44581</v>
       </c>
     </row>
